--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-careplan.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-careplan.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-careplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -263,10 +263,6 @@
   </si>
   <si>
     <t>1人以上の開業医が、特定の条件または一連の条件のケアに限定される可能性がある、特定の患者、グループ、またはコミュニティの世話を一定期間提供する方法の意図を説明しています。 / Describes the intention of how one or more practitioners intend to deliver care for a particular patient, group or community for a period of time, possibly limited to care for a specific condition or set of conditions.</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -2063,13 +2059,13 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>80</v>
@@ -2080,7 +2076,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2091,28 +2087,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2162,13 +2158,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -2191,7 +2187,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2202,25 +2198,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2271,19 +2267,19 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>80</v>
@@ -2300,7 +2296,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2311,28 +2307,28 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2382,19 +2378,19 @@
         <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>80</v>
@@ -2411,7 +2407,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2422,7 +2418,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>80</v>
@@ -2434,16 +2430,16 @@
         <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2469,43 +2465,43 @@
         <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>80</v>
@@ -2522,18 +2518,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>80</v>
@@ -2545,16 +2541,16 @@
         <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2604,25 +2600,25 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>80</v>
@@ -2633,11 +2629,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2656,16 +2652,16 @@
         <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2715,7 +2711,7 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
@@ -2733,7 +2729,7 @@
         <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>80</v>
@@ -2744,11 +2740,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2767,16 +2763,16 @@
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2826,7 +2822,7 @@
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
@@ -2838,13 +2834,13 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>80</v>
@@ -2855,11 +2851,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2872,25 +2868,25 @@
         <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>80</v>
@@ -2939,7 +2935,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -2951,13 +2947,13 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -2968,7 +2964,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2988,22 +2984,22 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>80</v>
@@ -3052,7 +3048,7 @@
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3064,24 +3060,24 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3101,16 +3097,16 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3161,7 +3157,7 @@
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3173,13 +3169,13 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
@@ -3190,7 +3186,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3210,19 +3206,19 @@
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3272,7 +3268,7 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3284,13 +3280,13 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
@@ -3301,11 +3297,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3321,20 +3317,20 @@
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>80</v>
@@ -3383,7 +3379,7 @@
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
@@ -3395,10 +3391,10 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3412,11 +3408,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3432,22 +3428,22 @@
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>80</v>
@@ -3496,7 +3492,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3508,10 +3504,10 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3525,7 +3521,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3545,19 +3541,19 @@
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3607,7 +3603,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3619,7 +3615,7 @@
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>80</v>
@@ -3636,7 +3632,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3644,34 +3640,34 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="I17" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3696,60 +3692,60 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="X17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3757,34 +3753,34 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -3809,46 +3805,46 @@
         <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -3862,7 +3858,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3882,22 +3878,22 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -3922,14 +3918,14 @@
         <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>80</v>
       </c>
@@ -3946,7 +3942,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3958,7 +3954,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>80</v>
@@ -3967,7 +3963,7 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -3975,7 +3971,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3986,25 +3982,25 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4055,19 +4051,19 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>80</v>
@@ -4084,7 +4080,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4095,29 +4091,29 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
@@ -4166,19 +4162,19 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>80</v>
@@ -4187,7 +4183,7 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4195,36 +4191,36 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4275,36 +4271,36 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4315,28 +4311,28 @@
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4386,71 +4382,71 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4499,65 +4495,65 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4608,28 +4604,28 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4637,7 +4633,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4648,28 +4644,28 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4719,28 +4715,28 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4748,7 +4744,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4771,16 +4767,16 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4830,7 +4826,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4842,7 +4838,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>80</v>
@@ -4859,7 +4855,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4882,17 +4878,17 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -4941,7 +4937,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4953,16 +4949,16 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -4970,7 +4966,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4990,22 +4986,22 @@
         <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5054,7 +5050,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5066,24 +5062,24 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5106,19 +5102,19 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5167,7 +5163,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5179,10 +5175,10 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5196,7 +5192,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5219,19 +5215,19 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>80</v>
@@ -5280,7 +5276,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5292,24 +5288,24 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5332,17 +5328,17 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
@@ -5391,7 +5387,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5403,13 +5399,13 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -5420,7 +5416,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5431,7 +5427,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>80</v>
@@ -5443,13 +5439,13 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5500,25 +5496,25 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5529,11 +5525,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5552,16 +5548,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5611,7 +5607,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5623,13 +5619,13 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -5640,11 +5636,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5657,25 +5653,25 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5724,7 +5720,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5736,13 +5732,13 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -5753,7 +5749,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5776,16 +5772,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5811,14 +5807,14 @@
         <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5835,7 +5831,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5847,7 +5843,7 @@
         <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>80</v>
@@ -5864,7 +5860,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5887,19 +5883,19 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -5948,7 +5944,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -5960,13 +5956,13 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -5977,7 +5973,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6000,19 +5996,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6061,7 +6057,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6073,24 +6069,24 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6101,7 +6097,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>80</v>
@@ -6113,19 +6109,19 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6174,25 +6170,25 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AI39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6203,7 +6199,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6214,7 +6210,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>80</v>
@@ -6226,17 +6222,17 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -6285,25 +6281,25 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -6314,7 +6310,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6325,7 +6321,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>80</v>
@@ -6337,13 +6333,13 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6394,25 +6390,25 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -6423,11 +6419,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6446,16 +6442,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6505,7 +6501,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6517,13 +6513,13 @@
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6534,11 +6530,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6551,25 +6547,25 @@
         <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>80</v>
@@ -6618,7 +6614,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6630,13 +6626,13 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6647,7 +6643,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6658,7 +6654,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>80</v>
@@ -6670,17 +6666,17 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6705,49 +6701,49 @@
         <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -6758,7 +6754,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6781,17 +6777,17 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -6840,7 +6836,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6852,13 +6848,13 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
@@ -6869,7 +6865,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6892,19 +6888,19 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -6953,7 +6949,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6965,13 +6961,13 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -6982,7 +6978,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6993,7 +6989,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -7005,19 +7001,19 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>80</v>
@@ -7042,60 +7038,60 @@
         <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y47" t="s" s="2">
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7118,16 +7114,16 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7153,14 +7149,14 @@
         <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7177,7 +7173,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7189,10 +7185,10 @@
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7206,7 +7202,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7229,16 +7225,16 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7288,7 +7284,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7300,10 +7296,10 @@
         <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7317,7 +7313,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7340,17 +7336,17 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7399,7 +7395,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7411,13 +7407,13 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7428,7 +7424,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7436,34 +7432,34 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -7488,60 +7484,60 @@
         <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>407</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7552,7 +7548,7 @@
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>80</v>
@@ -7564,16 +7560,16 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7623,22 +7619,22 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -7652,7 +7648,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7663,100 +7659,100 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P53" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="O53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P53" t="s" s="2">
+      <c r="Q53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Q53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -7767,7 +7763,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7778,7 +7774,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>80</v>
@@ -7790,17 +7786,17 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -7849,36 +7845,36 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7889,7 +7885,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>80</v>
@@ -7901,19 +7897,19 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -7962,36 +7958,36 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>435</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8014,19 +8010,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8075,7 +8071,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8087,24 +8083,24 @@
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8115,7 +8111,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>80</v>
@@ -8127,13 +8123,13 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8160,71 +8156,71 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Y57" t="s" s="2">
+      <c r="Z57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>80</v>
@@ -8236,17 +8232,17 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8295,36 +8291,36 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>459</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8335,7 +8331,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>80</v>
@@ -8347,13 +8343,13 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8404,36 +8400,36 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8444,7 +8440,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
@@ -8456,13 +8452,13 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8513,36 +8509,36 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8565,17 +8561,17 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -8624,7 +8620,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8636,19 +8632,19 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
